--- a/relatorios/base de dados/CONDOMINIO UP JARDIM PRUDENCIA ECN 2024_08_08 09_31_48.xlsx
+++ b/relatorios/base de dados/CONDOMINIO UP JARDIM PRUDENCIA ECN 2024_08_08 09_31_48.xlsx
@@ -4296,13 +4296,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{144F71A2-984D-47F2-84B7-EB3E2983FA35}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A78599C-1BD8-406B-B33F-8885744637D1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A47CB6C6-BDA0-4BB3-B3F9-6D2ADC0B1590}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6302A40-7862-4825-ADBB-A58DBDD47826}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CA57BB7-DA3A-43F5-8510-06762AA88CED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{132B83D4-0FF0-4340-9F9E-3F79D2C8C165}"/>
 </file>
--- a/relatorios/base de dados/CONDOMINIO UP JARDIM PRUDENCIA ECN 2024_08_08 09_31_48.xlsx
+++ b/relatorios/base de dados/CONDOMINIO UP JARDIM PRUDENCIA ECN 2024_08_08 09_31_48.xlsx
@@ -4296,13 +4296,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A78599C-1BD8-406B-B33F-8885744637D1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75A87E1E-094A-4992-9C21-812021A4126D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6302A40-7862-4825-ADBB-A58DBDD47826}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7384CD56-292B-48ED-980A-041D404853D0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{132B83D4-0FF0-4340-9F9E-3F79D2C8C165}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2030CC99-63A6-4864-8C67-50CD57EBB4F0}"/>
 </file>